--- a/Tools/ExcelConfig/ExcelTables/__enums__.xlsx
+++ b/Tools/ExcelConfig/ExcelTables/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/OneTb/GameP/Tools/ExcelConfig/ExcelTables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\GameP\Tools\ExcelConfig\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A3440-2FC1-1A45-A74D-FF6B2E9E35AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE1751-44E4-4E93-9DE9-AF7250019D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32980" yWindow="1520" windowWidth="28520" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>##var</t>
   </si>
@@ -152,209 +152,223 @@
     <t>WRITE|READ</t>
   </si>
   <si>
+    <t>OpAct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpAct1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpAct2</t>
+  </si>
+  <si>
+    <t>OpAct3</t>
+  </si>
+  <si>
+    <t>OpAct4</t>
+  </si>
+  <si>
+    <t>Release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undefine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnBadParry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SphereCast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1Act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2Act</t>
+  </si>
+  <si>
+    <t>Skill3Act</t>
+  </si>
+  <si>
+    <t>Skill4Act</t>
+  </si>
+  <si>
+    <t>Skill5Act</t>
+  </si>
+  <si>
+    <t>IdleOrWalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnDash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caught</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandardDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnCatchAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherAlly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherAlly|Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self|OtherAlly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetTypeTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillUpParry</t>
+  </si>
+  <si>
+    <t>SkillDownParry</t>
+  </si>
+  <si>
+    <t>SkillLeftParry</t>
+  </si>
+  <si>
+    <t>SkilRightParry</t>
+  </si>
+  <si>
+    <t>SkillOtherParry</t>
+  </si>
+  <si>
+    <t>SkillUpDodge</t>
+  </si>
+  <si>
+    <t>SkillDownDodge</t>
+  </si>
+  <si>
+    <t>SkillRightDodge</t>
+  </si>
+  <si>
+    <t>SkillLeftDodge</t>
+  </si>
+  <si>
+    <t>SkillOtherDodge</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>AtkDirType</t>
+  </si>
+  <si>
     <t>ActStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpAct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpAct1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpAct2</t>
-  </si>
-  <si>
-    <t>OpAct3</t>
-  </si>
-  <si>
-    <t>OpAct4</t>
-  </si>
-  <si>
-    <t>Release</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Undefine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnBadParry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ColliderShape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SphereCast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill1Act</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2Act</t>
-  </si>
-  <si>
-    <t>Skill3Act</t>
-  </si>
-  <si>
-    <t>Skill4Act</t>
-  </si>
-  <si>
-    <t>Skill5Act</t>
-  </si>
-  <si>
-    <t>IdleOrWalk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill1Parry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2Parry</t>
-  </si>
-  <si>
-    <t>Skill3Parry</t>
-  </si>
-  <si>
-    <t>Skill4Parry</t>
-  </si>
-  <si>
-    <t>Skill5Parry</t>
-  </si>
-  <si>
-    <t>Skill1Dodge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2Dodge</t>
-  </si>
-  <si>
-    <t>Skill3Dodge</t>
-  </si>
-  <si>
-    <t>Skill4Dodge</t>
-  </si>
-  <si>
-    <t>Skill5Dodge</t>
-  </si>
-  <si>
-    <t>OnDash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Caught</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StandardDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpawnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnCatchAtk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OtherAlly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllOther</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OtherAlly|Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Allies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self|OtherAlly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediaType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetTypeTag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sphere</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -692,23 +706,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -930,7 +944,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -939,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -947,7 +961,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -955,7 +969,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="H16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -963,7 +977,7 @@
     </row>
     <row r="17" spans="7:10">
       <c r="H17" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -971,7 +985,7 @@
     </row>
     <row r="18" spans="7:10">
       <c r="H18" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -979,7 +993,7 @@
     </row>
     <row r="19" spans="7:10">
       <c r="H19" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -987,7 +1001,7 @@
     </row>
     <row r="20" spans="7:10">
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -995,7 +1009,7 @@
     </row>
     <row r="21" spans="7:10">
       <c r="H21" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="J21">
         <v>7</v>
@@ -1004,7 +1018,7 @@
     <row r="22" spans="7:10">
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -1013,7 +1027,7 @@
     <row r="23" spans="7:10">
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -1022,7 +1036,7 @@
     <row r="24" spans="7:10">
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -1031,7 +1045,7 @@
     <row r="25" spans="7:10">
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J25">
         <v>11</v>
@@ -1040,7 +1054,7 @@
     <row r="26" spans="7:10">
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J26">
         <v>12</v>
@@ -1048,7 +1062,7 @@
     </row>
     <row r="27" spans="7:10">
       <c r="H27" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="J27">
         <v>13</v>
@@ -1056,7 +1070,7 @@
     </row>
     <row r="28" spans="7:10">
       <c r="H28" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J28">
         <v>14</v>
@@ -1064,7 +1078,7 @@
     </row>
     <row r="29" spans="7:10">
       <c r="H29" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J29">
         <v>15</v>
@@ -1072,7 +1086,7 @@
     </row>
     <row r="30" spans="7:10">
       <c r="H30" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="J30">
         <v>16</v>
@@ -1080,7 +1094,7 @@
     </row>
     <row r="31" spans="7:10">
       <c r="H31" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="J31">
         <v>17</v>
@@ -1088,7 +1102,7 @@
     </row>
     <row r="32" spans="7:10">
       <c r="H32" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J32">
         <v>18</v>
@@ -1096,7 +1110,7 @@
     </row>
     <row r="33" spans="2:10">
       <c r="H33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33">
         <v>19</v>
@@ -1104,7 +1118,7 @@
     </row>
     <row r="34" spans="2:10">
       <c r="H34" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="J34">
         <v>20</v>
@@ -1121,7 +1135,7 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -1130,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1138,7 +1152,7 @@
     </row>
     <row r="39" spans="2:10">
       <c r="H39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -1146,7 +1160,7 @@
     </row>
     <row r="40" spans="2:10">
       <c r="H40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -1154,7 +1168,7 @@
     </row>
     <row r="41" spans="2:10">
       <c r="H41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>3</v>
@@ -1162,7 +1176,7 @@
     </row>
     <row r="42" spans="2:10">
       <c r="H42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>4</v>
@@ -1170,7 +1184,7 @@
     </row>
     <row r="43" spans="2:10">
       <c r="H43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>5</v>
@@ -1187,7 +1201,7 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -1196,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -1204,7 +1218,7 @@
     </row>
     <row r="50" spans="2:10">
       <c r="H50" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -1212,7 +1226,7 @@
     </row>
     <row r="51" spans="2:10">
       <c r="H51" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -1220,7 +1234,7 @@
     </row>
     <row r="52" spans="2:10">
       <c r="H52" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -1228,7 +1242,7 @@
     </row>
     <row r="53" spans="2:10">
       <c r="H53" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J53">
         <v>4</v>
@@ -1245,7 +1259,7 @@
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -1254,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -1263,7 +1277,7 @@
     <row r="60" spans="2:10">
       <c r="B60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -1272,7 +1286,7 @@
     <row r="61" spans="2:10">
       <c r="B61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -1288,7 +1302,7 @@
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -1297,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -1306,7 +1320,7 @@
     <row r="65" spans="2:10">
       <c r="B65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -1315,7 +1329,7 @@
     <row r="66" spans="2:10">
       <c r="B66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -1324,19 +1338,19 @@
     <row r="67" spans="2:10">
       <c r="B67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="2:10">
@@ -1346,7 +1360,7 @@
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -1355,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -1364,7 +1378,7 @@
     <row r="71" spans="2:10">
       <c r="B71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="J71" s="1">
         <v>1</v>
@@ -1373,7 +1387,7 @@
     <row r="72" spans="2:10">
       <c r="B72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J72" s="1">
         <v>2</v>
@@ -1382,7 +1396,7 @@
     <row r="73" spans="2:10">
       <c r="B73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J73" s="1">
         <v>3</v>
@@ -1391,7 +1405,7 @@
     <row r="74" spans="2:10">
       <c r="B74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J74" s="1">
         <v>4</v>
@@ -1400,7 +1414,7 @@
     <row r="75" spans="2:10">
       <c r="B75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J75" s="1">
         <v>5</v>
@@ -1416,7 +1430,7 @@
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -1425,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -1433,7 +1447,7 @@
     </row>
     <row r="79" spans="2:10">
       <c r="H79" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -1441,34 +1455,83 @@
     </row>
     <row r="80" spans="2:10">
       <c r="H80" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="8:10">
+    <row r="81" spans="2:10">
       <c r="H81" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J81">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="8:10">
+    <row r="82" spans="2:10">
       <c r="H82" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J82">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="8:10">
+    <row r="83" spans="2:10">
       <c r="H83" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J83">
         <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>92</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="H87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="H88" t="s">
+        <v>94</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="H89" t="s">
+        <v>95</v>
+      </c>
+      <c r="J89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="H90" t="s">
+        <v>96</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/ExcelConfig/ExcelTables/__enums__.xlsx
+++ b/Tools/ExcelConfig/ExcelTables/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\GameP\Tools\ExcelConfig\ExcelTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/OneTb/GameP/Tools/ExcelConfig/ExcelTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE1751-44E4-4E93-9DE9-AF7250019D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDF7D99-5C72-A34C-B33F-B6525DA74B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
   <si>
     <t>##var</t>
   </si>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OnBadParry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OnCatchAtk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Self</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,21 +324,6 @@
     <t>SkillOtherParry</t>
   </si>
   <si>
-    <t>SkillUpDodge</t>
-  </si>
-  <si>
-    <t>SkillDownDodge</t>
-  </si>
-  <si>
-    <t>SkillRightDodge</t>
-  </si>
-  <si>
-    <t>SkillLeftDodge</t>
-  </si>
-  <si>
-    <t>SkillOtherDodge</t>
-  </si>
-  <si>
     <t>Up</t>
   </si>
   <si>
@@ -365,17 +342,65 @@
     <t>AtkDirType</t>
   </si>
   <si>
+    <t>ColliderShape</t>
+  </si>
+  <si>
+    <t>TargetTraceMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffMark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BodyStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active|Break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active|Break|Dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ActStatus</t>
-  </si>
-  <si>
-    <t>ColliderShape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnCatchOrBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +422,12 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF9876AA"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="2">
@@ -421,11 +452,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -706,23 +740,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -747,13 +781,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -944,7 +978,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -961,7 +995,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -975,563 +1009,604 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="7:10">
+    <row r="17" spans="2:10">
       <c r="H17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="7:10">
+    <row r="18" spans="2:10">
       <c r="H18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="7:10">
+    <row r="19" spans="2:10">
       <c r="H19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="7:10">
+    <row r="20" spans="2:10">
       <c r="H20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="7:10">
+    <row r="21" spans="2:10">
       <c r="H21" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J21">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="7:10">
+    <row r="22" spans="2:10">
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J22">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="7:10">
+    <row r="23" spans="2:10">
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="7:10">
+    <row r="24" spans="2:10">
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="7:10">
+    <row r="25" spans="2:10">
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="7:10">
+    <row r="26" spans="2:10">
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="7:10">
+    <row r="27" spans="2:10">
       <c r="H27" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="J27">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="7:10">
+    <row r="28" spans="2:10">
       <c r="H28" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="J28">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="7:10">
-      <c r="H29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="7:10">
-      <c r="H30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="7:10">
-      <c r="H31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="7:10">
+    <row r="29" spans="2:10">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
       <c r="H32" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J32">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="H33" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J33">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="H34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="H35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="H36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="H37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="H44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="H45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="H46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="H47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="1"/>
+      <c r="H56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="H39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="H40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40">
+      <c r="J56">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
-      <c r="H41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="H42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42">
+    <row r="57" spans="2:10">
+      <c r="B57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J57">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
-      <c r="H43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="H46" s="1"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="H50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="H51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="H52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="H53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="H57" s="1"/>
+    <row r="58" spans="2:10">
+      <c r="B58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
+      <c r="B59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="1"/>
-      <c r="H60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
+      <c r="H60" s="1"/>
+      <c r="J60" s="1"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
       <c r="H61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J61">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
+      <c r="B64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="J64" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J65">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J66">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="J66" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="1"/>
-      <c r="H67" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="H67" s="1"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="1"/>
-      <c r="H68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" t="b">
-        <v>0</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J70" s="1">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J71" s="1">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J72" s="1">
+        <v>59</v>
+      </c>
+      <c r="J72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="H73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="H74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>85</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="H78" t="s">
+        <v>86</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="H79" t="s">
+        <v>87</v>
+      </c>
+      <c r="J79">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="1"/>
-      <c r="H73" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J73" s="1">
+    <row r="80" spans="2:10">
+      <c r="H80" t="s">
+        <v>88</v>
+      </c>
+      <c r="J80">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:10">
-      <c r="B74" s="1"/>
-      <c r="H74" s="1" t="s">
+    <row r="81" spans="2:10">
+      <c r="H81" t="s">
+        <v>89</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="H84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="H85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="H86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="H87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J87">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="1"/>
-      <c r="H75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J75" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" t="b">
-        <v>0</v>
-      </c>
-      <c r="D78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10">
-      <c r="H79" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="H80" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J80">
+    <row r="89" spans="2:10">
+      <c r="B89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="H90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J90">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:10">
-      <c r="H81" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="H82" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J82">
+    <row r="91" spans="2:10">
+      <c r="H91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J91">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:10">
-      <c r="H83" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10">
-      <c r="B86" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" t="b">
-        <v>0</v>
-      </c>
-      <c r="D86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>92</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10">
-      <c r="H87" t="s">
-        <v>93</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10">
-      <c r="H88" t="s">
-        <v>94</v>
-      </c>
-      <c r="J88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="H89" t="s">
-        <v>95</v>
-      </c>
-      <c r="J89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="H90" t="s">
-        <v>96</v>
-      </c>
-      <c r="J90">
-        <v>4</v>
+    <row r="92" spans="2:10">
+      <c r="H92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="H93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/ExcelConfig/ExcelTables/__enums__.xlsx
+++ b/Tools/ExcelConfig/ExcelTables/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/OneTb/GameP/Tools/ExcelConfig/ExcelTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDF7D99-5C72-A34C-B33F-B6525DA74B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F07F70F-604B-1646-81E7-C4335FF0B3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -318,9 +318,6 @@
     <t>SkillLeftParry</t>
   </si>
   <si>
-    <t>SkilRightParry</t>
-  </si>
-  <si>
     <t>SkillOtherParry</t>
   </si>
   <si>
@@ -393,6 +390,18 @@
   </si>
   <si>
     <t>OnCatchOrBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillRightParry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up|Left|Right|Down|Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -978,7 +987,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -987,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -995,7 +1004,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1003,7 +1012,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1011,7 +1020,7 @@
     </row>
     <row r="17" spans="2:10">
       <c r="H17" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -1019,7 +1028,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="H18" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1027,7 +1036,7 @@
     </row>
     <row r="19" spans="2:10">
       <c r="H19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -1035,7 +1044,7 @@
     </row>
     <row r="20" spans="2:10">
       <c r="H20" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -1043,7 +1052,7 @@
     </row>
     <row r="21" spans="2:10">
       <c r="H21" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>7</v>
@@ -1052,7 +1061,7 @@
     <row r="22" spans="2:10">
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -1061,7 +1070,7 @@
     <row r="23" spans="2:10">
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -1070,7 +1079,7 @@
     <row r="24" spans="2:10">
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -1079,7 +1088,7 @@
     <row r="25" spans="2:10">
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J25">
         <v>11</v>
@@ -1088,7 +1097,7 @@
     <row r="26" spans="2:10">
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J26">
         <v>12</v>
@@ -1096,7 +1105,7 @@
     </row>
     <row r="27" spans="2:10">
       <c r="H27" s="1" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="J27">
         <v>13</v>
@@ -1104,7 +1113,7 @@
     </row>
     <row r="28" spans="2:10">
       <c r="H28" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J28">
         <v>14</v>
@@ -1187,7 +1196,7 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -1464,150 +1473,161 @@
     </row>
     <row r="77" spans="2:10">
       <c r="B77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="H78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="H79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="H80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J80">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="2:10">
       <c r="H81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="H82" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="H89" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C83" t="b">
-        <v>0</v>
-      </c>
-      <c r="D83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="H84" s="1" t="s">
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="H90" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="H85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10">
-      <c r="H86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10">
-      <c r="H87" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89" t="b">
-        <v>1</v>
-      </c>
-      <c r="D89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="H90" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="J90">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="2:10">
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="H92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J91">
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="H95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="H96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J96">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="2:10">
-      <c r="H92" s="2" t="s">
+    <row r="97" spans="8:10">
+      <c r="H97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J92" s="1" t="s">
+    </row>
+    <row r="98" spans="8:10">
+      <c r="H98" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="H93" s="2" t="s">
+      <c r="J98" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>102</v>
-      </c>
+    </row>
+    <row r="99" spans="8:10">
+      <c r="H99" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
